--- a/medicine/Handicap/Atrésie/Atrésie.xlsx
+++ b/medicine/Handicap/Atrésie/Atrésie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Atr%C3%A9sie</t>
+          <t>Atrésie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,20 +490,22 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une atrésie (du grec : a- privatif et trêsis : trou) décrit généralement une malformation congénitale menant à une anomalie anatomique qui se caractérise par la fermeture complète ou non d'un orifice ou d'un conduit d'un organisme[1].
-Elle peut être d'origine congénitale (variété d'aplasie) ou exceptionnellement acquise (phénomène d'apoptose)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une atrésie (du grec : a- privatif et trêsis : trou) décrit généralement une malformation congénitale menant à une anomalie anatomique qui se caractérise par la fermeture complète ou non d'un orifice ou d'un conduit d'un organisme.
+Elle peut être d'origine congénitale (variété d'aplasie) ou exceptionnellement acquise (phénomène d'apoptose).
 Exemples d'atrésie :
 atrésie aortique ;
 atrésie anus-rectum ;
-atrésie du canal auditif[3]
+atrésie du canal auditif
 atrésie du canal déférent ;
-atrésie de l'œsophage[1] ;
+atrésie de l'œsophage ;
 atrésie trachéale ;
 atrésie vaginale ;
-atrésie des voies biliaires[1] qui touche un nouveau-né sur 20 000 et est la cause la plus fréquente de l'ictère obstructif ;
-En médecine on parle aussi d'atrésie folliculaire[2] pour la diminution physiologique (et non pathologique) du stock d'ovocytes (7 millions de follicules à 7 mois de vie embryonnaire pour un millier à la ménopause).
+atrésie des voies biliaires qui touche un nouveau-né sur 20 000 et est la cause la plus fréquente de l'ictère obstructif ;
+En médecine on parle aussi d'atrésie folliculaire pour la diminution physiologique (et non pathologique) du stock d'ovocytes (7 millions de follicules à 7 mois de vie embryonnaire pour un millier à la ménopause).
 </t>
         </is>
       </c>
